--- a/artfynd/A 8056-2021.xlsx
+++ b/artfynd/A 8056-2021.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97272055</v>
+        <v>110200520</v>
       </c>
       <c r="B4" t="n">
-        <v>85703</v>
+        <v>77259</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,40 +928,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Brattfaret, Ång</t>
+          <t>Storhöjden, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>651119.2294871274</v>
+        <v>650679.6700574562</v>
       </c>
       <c r="R4" t="n">
-        <v>7005953.279259816</v>
+        <v>7006329.71806069</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,7 +982,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -995,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1009,29 +1006,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Nils Ericson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97272062</v>
+        <v>110204944</v>
       </c>
       <c r="B5" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,44 +1036,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Brattfaret, Ång</t>
+          <t>Vitberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>651134.4035808664</v>
+        <v>650712.081957066</v>
       </c>
       <c r="R5" t="n">
-        <v>7005919.585986075</v>
+        <v>7006373.321625493</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,7 +1094,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1104,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1125,29 +1118,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97272044</v>
+        <v>110200634</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,40 +1152,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Brattfaret, Ång</t>
+          <t>Storhöjden, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>651092.6504968955</v>
+        <v>650713.7645427607</v>
       </c>
       <c r="R6" t="n">
-        <v>7006066.106331692</v>
+        <v>7006376.115701492</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1217,7 +1206,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1227,7 +1216,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1241,29 +1230,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110200520</v>
+        <v>97272055</v>
       </c>
       <c r="B7" t="n">
-        <v>77259</v>
+        <v>85703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,37 +1264,40 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>510</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Storhöjden, Ång</t>
+          <t>Brattfaret, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>650679.6700574562</v>
+        <v>651119.2294871274</v>
       </c>
       <c r="R7" t="n">
-        <v>7006329.71806069</v>
+        <v>7005953.279259816</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1321,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1331,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1354,28 +1345,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>klara linder</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Nils Ericson</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110204944</v>
+        <v>97272062</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,41 +1376,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Vitberget, Ång</t>
+          <t>Brattfaret, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>650712.081957066</v>
+        <v>651134.4035808664</v>
       </c>
       <c r="R8" t="n">
-        <v>7006373.321625493</v>
+        <v>7005919.585986075</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1442,7 +1437,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1452,7 +1447,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1466,28 +1461,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>klara linder</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110200634</v>
+        <v>97272044</v>
       </c>
       <c r="B9" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,37 +1496,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Storhöjden, Ång</t>
+          <t>Brattfaret, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>650713.7645427607</v>
+        <v>651092.6504968955</v>
       </c>
       <c r="R9" t="n">
-        <v>7006376.115701492</v>
+        <v>7006066.106331692</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1554,7 +1553,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1564,7 +1563,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1578,18 +1577,19 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>klara linder</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>

--- a/artfynd/A 8056-2021.xlsx
+++ b/artfynd/A 8056-2021.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110200520</v>
+        <v>97272055</v>
       </c>
       <c r="B4" t="n">
-        <v>77259</v>
+        <v>85703</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,37 +928,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Storhöjden, Ång</t>
+          <t>Brattfaret, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>650679.6700574562</v>
+        <v>651119.2294871274</v>
       </c>
       <c r="R4" t="n">
-        <v>7006329.71806069</v>
+        <v>7005953.279259816</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +985,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +995,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,28 +1009,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>klara linder</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Nils Ericson</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110204944</v>
+        <v>97272062</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,41 +1040,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Vitberget, Ång</t>
+          <t>Brattfaret, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>650712.081957066</v>
+        <v>651134.4035808664</v>
       </c>
       <c r="R5" t="n">
-        <v>7006373.321625493</v>
+        <v>7005919.585986075</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1094,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1104,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1118,28 +1125,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>klara linder</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110200634</v>
+        <v>97272044</v>
       </c>
       <c r="B6" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,37 +1160,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Storhöjden, Ång</t>
+          <t>Brattfaret, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>650713.7645427607</v>
+        <v>651092.6504968955</v>
       </c>
       <c r="R6" t="n">
-        <v>7006376.115701492</v>
+        <v>7006066.106331692</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1206,7 +1217,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1216,7 +1227,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1230,28 +1241,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>klara linder</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
+          <t>Johannes Esberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97272055</v>
+        <v>110200520</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>77259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,40 +1276,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Brattfaret, Ång</t>
+          <t>Storhöjden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>651119.2294871274</v>
+        <v>650679.6700574562</v>
       </c>
       <c r="R7" t="n">
-        <v>7005953.279259816</v>
+        <v>7006329.71806069</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1321,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1331,7 +1340,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1345,29 +1354,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Nils Ericson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97272062</v>
+        <v>110204944</v>
       </c>
       <c r="B8" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,44 +1384,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Brattfaret, Ång</t>
+          <t>Vitberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>651134.4035808664</v>
+        <v>650712.081957066</v>
       </c>
       <c r="R8" t="n">
-        <v>7005919.585986075</v>
+        <v>7006373.321625493</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1437,7 +1442,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1447,7 +1452,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1461,29 +1466,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97272044</v>
+        <v>110200634</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,40 +1500,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Brattfaret, Ång</t>
+          <t>Storhöjden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>651092.6504968955</v>
+        <v>650713.7645427607</v>
       </c>
       <c r="R9" t="n">
-        <v>7006066.106331692</v>
+        <v>7006376.115701492</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1553,7 +1554,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1563,7 +1564,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1577,19 +1578,18 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Johannes Esberg</t>
+          <t>klara linder, Emmy Ransgart, Astrid Hedman, Ulf Sperens, Jonas Forsberg, Nils Ericson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
